--- a/group31project/data/NZ_CompaniesPublicRevenues.xlsx
+++ b/group31project/data/NZ_CompaniesPublicRevenues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mivel\OneDrive\Documents\Unil\Cours\DSFBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mivel\OneDrive\Documents\GitHub\dfsba_group31_project\group31project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69905AC-D8F3-44DF-9138-5C5CFF8EDD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7252669-D1AD-41B5-86DA-559D14BDB8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D11C8C0-0C5F-4B5A-A46D-A5BF805946FE}"/>
   </bookViews>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0773EFD7-112D-4AA2-8E25-1FE9764272DD}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
